--- a/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
+++ b/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domen\Desktop\IPT 2\PRAKTIKUM 2\PRII\desktop-app\electron-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D304E-C528-4601-ABA4-74E314477891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16957564-2224-4883-BCD1-C89B9911541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5776,8 +5776,8 @@
   </sheetPr>
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6051,15 +6051,9 @@
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="55">
-        <v>45323</v>
-      </c>
-      <c r="D24" s="55">
-        <v>45352</v>
-      </c>
-      <c r="E24" s="55">
-        <v>45383</v>
-      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">

--- a/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
+++ b/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domen\Desktop\IPT 2\PRAKTIKUM 2\PRII\desktop-app\electron-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16957564-2224-4883-BCD1-C89B9911541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96627267-7B0B-4CCA-A9DC-81907AFA57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3083,7 +3083,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>IZPOLNJUJE OSNOVNE KRITERIJE</a:t>
+            <a:t>NE IZPONJUJE OSNOVNIH KRITERIJEV!</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
@@ -5777,7 +5777,7 @@
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5908,7 +5908,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -5920,12 +5920,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="str">
         <f>IF(AND(C11="DA",C12="DA",C13="DA",C14="DA"),"IZPOLNJUJE OSNOVNE KRITERIJE", "NE IZPONJUJE OSNOVNIH KRITERIJEV!")</f>
-        <v>IZPOLNJUJE OSNOVNE KRITERIJE</v>
+        <v>NE IZPONJUJE OSNOVNIH KRITERIJEV!</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -5935,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -5947,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>

--- a/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
+++ b/desktop-app/electron-app/public/bonitetna-ocena-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domen\Desktop\IPT 2\PRAKTIKUM 2\PRII\desktop-app\electron-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96627267-7B0B-4CCA-A9DC-81907AFA57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75B66F-23F5-4527-A71D-20EDE1D67104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
   <si>
     <t>DAJALEC KREDITA:</t>
   </si>
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>mesecev</t>
-  </si>
-  <si>
-    <t>DA</t>
   </si>
   <si>
     <t>NE</t>
@@ -1271,7 +1268,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1286,7 +1283,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1664,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1682,7 +1679,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1869,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1887,7 +1884,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2265,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2283,7 +2280,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,7 +2860,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>SPEJEMLJIVO</a:t>
+            <a:t>VISOKO TVEGANJE</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
@@ -3742,7 +3739,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43</a:t>
+            <a:t>30</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="3600" b="1">
             <a:solidFill>
@@ -4300,7 +4297,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36.5</a:t>
+            <a:t>30</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="3200" b="1">
             <a:solidFill>
@@ -4692,7 +4689,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>43</a:t>
+            <a:t>30</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="3600" b="1">
             <a:solidFill>
@@ -5250,7 +5247,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>36.5</a:t>
+            <a:t>30</a:t>
           </a:fld>
           <a:endParaRPr lang="sl-SI" sz="3200" b="1">
             <a:solidFill>
@@ -5776,8 +5773,8 @@
   </sheetPr>
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5844,7 +5841,7 @@
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="18"/>
@@ -5908,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -5920,7 +5917,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="str">
@@ -5935,7 +5932,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -5947,7 +5944,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -5977,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="24">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -5989,7 +5986,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -6002,7 +5999,7 @@
       </c>
       <c r="C19" s="25">
         <f>IFERROR(VLOOKUP((C17&amp;" - "&amp;C18),List1!D6:E24,2,FALSE),0)</f>
-        <v>183.35998581245789</v>
+        <v>103.01488806245844</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -6041,9 +6038,7 @@
       <c r="B23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="23">
-        <v>10</v>
-      </c>
+      <c r="C23" s="23"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -6291,7 +6286,7 @@
       </c>
       <c r="C38" s="27">
         <f>+F29+F30-F31-IF(F28&lt;0,-F28/12,0)-C19</f>
-        <v>-183.35998581245789</v>
+        <v>-103.01488806245844</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -6369,7 +6364,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -6381,7 +6376,7 @@
         <v>75</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -6405,7 +6400,7 @@
         <v>65</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -6483,7 +6478,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
@@ -6659,7 +6654,7 @@
       </c>
       <c r="C66" s="49" t="str">
         <f>+C42</f>
-        <v>DA</v>
+        <v>NE</v>
       </c>
       <c r="D66" s="18">
         <v>6</v>
@@ -6667,7 +6662,7 @@
       <c r="E66" s="18"/>
       <c r="F66" s="18">
         <f>IF(C66="DA",6,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I66" s="37"/>
     </row>
@@ -6680,7 +6675,7 @@
       </c>
       <c r="C67" s="49">
         <f>+C23</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D67" s="18">
         <v>4</v>
@@ -6688,7 +6683,7 @@
       <c r="E67" s="18"/>
       <c r="F67" s="18">
         <f>VLOOKUP(C67,List1!U30:V40,2)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67" s="37"/>
     </row>
@@ -6701,7 +6696,7 @@
       </c>
       <c r="C68" s="49" t="str">
         <f>+C44</f>
-        <v>DA</v>
+        <v>NE</v>
       </c>
       <c r="D68" s="18">
         <v>3</v>
@@ -6709,7 +6704,7 @@
       <c r="E68" s="18"/>
       <c r="F68" s="18">
         <f>IF(C68="DA",3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" s="37"/>
     </row>
@@ -6747,11 +6742,11 @@
       <c r="E70" s="18"/>
       <c r="F70" s="19">
         <f>SUM(F61:F68)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H70" s="19" t="str">
         <f>VLOOKUP(F70,List1!B105:C109,2)</f>
-        <v>SPEJEMLJIVO</v>
+        <v>VISOKO TVEGANJE</v>
       </c>
       <c r="I70" s="37"/>
     </row>
@@ -6931,7 +6926,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="52">
         <f>+(F70*D80)+(F78*(1-D80))</f>
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="G80" s="42"/>
       <c r="H80" s="52" t="str">
@@ -7145,7 +7140,7 @@
     </row>
     <row r="110" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -14011,7 +14006,7 @@
       </c>
       <c r="F105">
         <f>IF(BONITETA!F70&lt;=List1!E105,BONITETA!F70,"")</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -14037,7 +14032,7 @@
       </c>
       <c r="T105">
         <f>IF(BONITETA!F80&lt;=List1!S105,BONITETA!F80,"")</f>
-        <v>36.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
@@ -14210,7 +14205,7 @@
       </c>
       <c r="F110">
         <f>MAX(85,BONITETA!F70)-BONITETA!F70</f>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L110" t="s">
         <v>127</v>
@@ -14224,7 +14219,7 @@
       </c>
       <c r="T110">
         <f>MAX(85,BONITETA!F80)-BONITETA!F80</f>
-        <v>48.5</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
